--- a/均衡からの2乗誤差/標準偏差に対する均衡からの二乗誤差.xlsx
+++ b/均衡からの2乗誤差/標準偏差に対する均衡からの二乗誤差.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81905\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53E1C359-8316-46EE-93C6-261F8DF9E53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F29DA09B-FC8A-47E7-B784-862143E7CE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{E3B3278F-F9DF-45BE-8CA2-89879DED0CDC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>n=10^5</t>
   </si>
@@ -87,6 +87,14 @@
     <rPh sb="16" eb="20">
       <t>ニジョウゴサ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>σ=0.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>σ=0.7</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -483,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D732DA9E-CBD8-4A78-BA59-1F1CF3F1FF35}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -495,9 +503,11 @@
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="15.25" customWidth="1"/>
     <col min="4" max="4" width="17.9140625" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -510,12 +520,18 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>0.95482050505050498</v>
       </c>
       <c r="C2" s="1">
@@ -524,8 +540,14 @@
       <c r="D2" s="1">
         <v>1.4549215050505</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E2" s="1">
+        <v>2.9880352929292902</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.6620626262626201E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -538,8 +560,14 @@
       <c r="D3" s="1">
         <v>1.4015399595959499</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E3" s="1">
+        <v>3.03428574747474</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.4133353535353501E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -552,8 +580,14 @@
       <c r="D4" s="1">
         <v>1.39153635353535</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E4" s="1">
+        <v>1.3247403535353499</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.2680656565656499E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -566,8 +600,14 @@
       <c r="D5" s="1">
         <v>0.39110083838383802</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E5" s="1">
+        <v>1.2768231717171701</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.13009602020201999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -580,8 +620,14 @@
       <c r="D6" s="1">
         <v>0.38206529292929198</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E6" s="1">
+        <v>1.12983795959595</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.115428747474747</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -594,8 +640,14 @@
       <c r="D7" s="1">
         <v>0.32049365656565598</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E7" s="1">
+        <v>0.90375508080808098</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.51683232323232E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -608,6 +660,20 @@
       <c r="D8" s="1">
         <v>0.17939568686868601</v>
       </c>
+      <c r="E8" s="1">
+        <v>0.45961374747474698</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4.7490414141414097E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
